--- a/municipal/სოციალური სტატისტიკა/სოციალური პაკეტის მიმღებთა რიცხოვნობა/სამეგრელო-ზემო სვანეთი/ზუგდიდი.xlsx
+++ b/municipal/სოციალური სტატისტიკა/სოციალური პაკეტის მიმღებთა რიცხოვნობა/სამეგრელო-ზემო სვანეთი/ზუგდიდი.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სოციალური სტატ\სოციალური პაკეტის მიმღებთა რიცხოვნობა\სამეგრელო-ზემო სავანეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\სოციალური სტატისტიკა\სოციალური პაკეტის მიმღებთა რიცხოვნობა\სამეგრელო-ზემო სავანეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ზუგდიდი" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -801,16 +801,16 @@
         <v>5166</v>
       </c>
       <c r="E4" s="7">
-        <v>3052</v>
+        <v>5189</v>
       </c>
       <c r="F4" s="7">
-        <v>3072</v>
+        <v>5283</v>
       </c>
       <c r="G4" s="7">
-        <v>3033</v>
+        <v>5280</v>
       </c>
       <c r="H4" s="7">
-        <v>2995</v>
+        <v>5231</v>
       </c>
       <c r="I4" s="7">
         <v>5397</v>
